--- a/fuentes/contenidos/grado08/guion12/CS_08_12_REC140_SolicitudGrafica.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_REC140_SolicitudGrafica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8790" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="276">
   <si>
     <t>Fecha:</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Votante</t>
   </si>
   <si>
-    <t>Misma imagen 11 del cuaderno de estudio. Imagen para ficha 2 opción 1.</t>
-  </si>
-  <si>
     <t>Shutterstock 246709375</t>
   </si>
   <si>
@@ -715,6 +712,144 @@
   </si>
   <si>
     <t>Tomar imagen de Gustavo Rojas Pinilla, o mandarlo ilustrar. Imagen para la ficha 3 opción 2.</t>
+  </si>
+  <si>
+    <t>Shutterstock 103596908</t>
+  </si>
+  <si>
+    <t>Bandera Colombia de seres humanos</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 1 opción 3.</t>
+  </si>
+  <si>
+    <t>Shutterstock 52737196</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 2 opción 3.</t>
+  </si>
+  <si>
+    <t>CS_08_12_CO_IMG09</t>
+  </si>
+  <si>
+    <t>Votante de referendo</t>
+  </si>
+  <si>
+    <t>Sí, no, blanco</t>
+  </si>
+  <si>
+    <t>La misma imagen 9 del cuaderno de estudio. Imagen para ficha 3 opción 3.</t>
+  </si>
+  <si>
+    <t>Shutterstock 140557603</t>
+  </si>
+  <si>
+    <t>Sí o no</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 1 opción 4.</t>
+  </si>
+  <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=A13REC009&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Consulta No a los recortes</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 2 opción 4.</t>
+  </si>
+  <si>
+    <t>http://www.registraduria.gov.co/Informacion/boletin_semanal/2011/boletin_11_enero_2011_archivos/image010.jpg</t>
+  </si>
+  <si>
+    <t>Consulta creación de municipio</t>
+  </si>
+  <si>
+    <t>Dibujar una ficha similar a la de la referencia. Imagen para ficha 3 opción 4.</t>
+  </si>
+  <si>
+    <t>Shutterstock 223821064</t>
+  </si>
+  <si>
+    <t>Exposición</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 1 opción 5.</t>
+  </si>
+  <si>
+    <t>Shutterstock 174539273</t>
+  </si>
+  <si>
+    <t>Reunión</t>
+  </si>
+  <si>
+    <t>Revuelta popular</t>
+  </si>
+  <si>
+    <t>CS_08_03_REC10_IMG02</t>
+  </si>
+  <si>
+    <t>Misma imagen 02 del recurso 10, del guion 08_03. Imagen para ficha 3 opción 5.</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 2 opción 5.</t>
+  </si>
+  <si>
+    <t>Shutterstock 209962822</t>
+  </si>
+  <si>
+    <t>Propuestas ciudadanas</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 1 opción 6.</t>
+  </si>
+  <si>
+    <t>Shutterstock 140419813</t>
+  </si>
+  <si>
+    <t>Consecución firmas</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 2 opción 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutterstock  220493632 </t>
+  </si>
+  <si>
+    <t>Voz sobre varios temas</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 3 opción 6.</t>
+  </si>
+  <si>
+    <t>Misma imagen 11 del cuaderno de estudio. Imagen para ficha 2 opción 1. Esta puede ser la misma imagen para el recurso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutterstock  377668588 </t>
+  </si>
+  <si>
+    <t>Revocar</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 1 opción 7.</t>
+  </si>
+  <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=A11SAN016&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Juan Manuel Santos</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 2 opción 7.</t>
+  </si>
+  <si>
+    <t>Shutterstock 280922420</t>
+  </si>
+  <si>
+    <t>Tarjeta roja</t>
+  </si>
+  <si>
+    <t>Imagen para ficha 3 opción 7.</t>
   </si>
 </sst>
 </file>
@@ -2492,9 +2627,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3277,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3180,7 +3315,7 @@
         <v>217</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
@@ -3193,7 +3328,7 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3222,10 +3357,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J19" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="68" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="68" t="s">
-        <v>221</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
@@ -3238,7 +3373,7 @@
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3267,10 +3402,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J20" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="66" t="s">
         <v>223</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>224</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
@@ -3283,7 +3418,7 @@
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3312,10 +3447,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J21" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="66" t="s">
         <v>226</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>227</v>
       </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
@@ -3328,7 +3463,7 @@
         <v>IMG13</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3357,10 +3492,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J22" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" s="69" t="s">
         <v>229</v>
-      </c>
-      <c r="K22" s="69" t="s">
-        <v>230</v>
       </c>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
@@ -3370,33 +3505,43 @@
     <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>230</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG14n.jpg</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG14a.jpg</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>232</v>
+      </c>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
@@ -3405,444 +3550,584 @@
     <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B24" s="62"/>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>233</v>
+      </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG15n.jpg</v>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG15a.jpg</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>234</v>
+      </c>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B25" s="62"/>
+        <v>IMG16</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>235</v>
+      </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG16n.jpg</v>
       </c>
       <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG16a.jpg</v>
       </c>
       <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B26" s="62"/>
+        <v>IMG17</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>239</v>
+      </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG17n.jpg</v>
       </c>
       <c r="G26" s="13" t="str">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG17a.jpg</v>
       </c>
       <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B27" s="62"/>
+        <v>IMG18</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F27" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG18n.jpg</v>
       </c>
       <c r="G27" s="13" t="str">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG18a.jpg</v>
       </c>
       <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J27" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>244</v>
+      </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B28" s="62"/>
+        <v>IMG19</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>245</v>
+      </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F28" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG19n.jpg</v>
       </c>
       <c r="G28" s="13" t="str">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG19a.jpg</v>
       </c>
       <c r="I28" s="13" t="str">
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J28" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B29" s="62"/>
+        <v>IMG20</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>248</v>
+      </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F29" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG20n.jpg</v>
       </c>
       <c r="G29" s="13" t="str">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG20a.jpg</v>
       </c>
       <c r="I29" s="13" t="str">
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B30" s="62"/>
+        <v>IMG21</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>251</v>
+      </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG21n.jpg</v>
       </c>
       <c r="G30" s="13" t="str">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H30" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG21a.jpg</v>
       </c>
       <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-    </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B31" s="62"/>
+        <v>IMG22</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>254</v>
+      </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG22n.jpg</v>
       </c>
       <c r="G31" s="13" t="str">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H31" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG22a.jpg</v>
       </c>
       <c r="I31" s="13" t="str">
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J31" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="64" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B32" s="62"/>
+        <v>IMG23</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>257</v>
+      </c>
       <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F32" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG23n.jpg</v>
       </c>
       <c r="G32" s="13" t="str">
         <f ca="1">IF($F32&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H32" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG23a.jpg</v>
       </c>
       <c r="I32" s="13" t="str">
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J32" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B33" s="62"/>
+        <v>IMG24</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>260</v>
+      </c>
       <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F33" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG24n.jpg</v>
       </c>
       <c r="G33" s="13" t="str">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H33" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG24a.jpg</v>
       </c>
       <c r="I33" s="13" t="str">
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B34" s="62"/>
+        <v>IMG25</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>263</v>
+      </c>
       <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F34" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG25n.jpg</v>
       </c>
       <c r="G34" s="13" t="str">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H34" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG25a.jpg</v>
       </c>
       <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J34" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>265</v>
+      </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B35" s="62"/>
+        <v>IMG26</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>267</v>
+      </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG26n.jpg</v>
       </c>
       <c r="G35" s="13" t="str">
         <f ca="1">IF($F35&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H35" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG26a.jpg</v>
       </c>
       <c r="I35" s="13" t="str">
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>269</v>
+      </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B36" s="62"/>
+        <v>IMG27</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>270</v>
+      </c>
       <c r="C36" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG27n.jpg</v>
       </c>
       <c r="G36" s="13" t="str">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H36" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG27a.jpg</v>
       </c>
       <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="65" t="s">
+        <v>272</v>
+      </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B37" s="62"/>
+        <v>IMG28</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>273</v>
+      </c>
       <c r="C37" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F37" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CS_08_12_REC140_IMG28n.jpg</v>
       </c>
       <c r="G37" s="13" t="str">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H37" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CS_08_12_REC140_IMG28a.jpg</v>
       </c>
       <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
@@ -6099,7 +6384,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.25" style="22" customWidth="1"/>
     <col min="2" max="2" width="11" style="22"/>
